--- a/staticfiles/models/templatePredictorsDemand.xlsx
+++ b/staticfiles/models/templatePredictorsDemand.xlsx
@@ -438,7 +438,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>21:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>20:40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -454,7 +454,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17:21</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -462,7 +462,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16:21</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -470,7 +470,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>17:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -478,7 +478,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -486,7 +486,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -494,7 +494,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -502,7 +502,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -510,7 +510,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -526,7 +526,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -534,7 +534,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07:21</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -542,7 +542,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06:21</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -550,7 +550,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05:21</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -558,7 +558,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04:21</t>
+          <t>06:40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -566,7 +566,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03:21</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -574,7 +574,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02:21</t>
+          <t>04:40</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -582,7 +582,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01:21</t>
+          <t>03:40</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -590,7 +590,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00:21</t>
+          <t>02:40</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -598,7 +598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23:21</t>
+          <t>01:40</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -606,7 +606,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22:21</t>
+          <t>00:40</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -614,7 +614,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>23:40</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20:21</t>
+          <t>22:40</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-03-20 20:21</t>
+          <t>2023-05-02 22:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-03-14 20:21</t>
+          <t>2023-04-26 22:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -708,7 +708,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-03-14 19:21</t>
+          <t>2023-04-26 21:40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-03-14 18:21</t>
+          <t>2023-04-26 20:40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -724,7 +724,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-03-14 17:21</t>
+          <t>2023-04-26 19:40</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-03-14 16:21</t>
+          <t>2023-04-26 18:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -740,7 +740,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-03-14 15:21</t>
+          <t>2023-04-26 17:40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -748,7 +748,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-03-14 14:21</t>
+          <t>2023-04-26 16:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-03-14 13:21</t>
+          <t>2023-04-26 15:40</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -764,7 +764,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-03-14 12:21</t>
+          <t>2023-04-26 14:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -772,7 +772,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-03-14 11:21</t>
+          <t>2023-04-26 13:40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -780,7 +780,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-03-14 10:21</t>
+          <t>2023-04-26 12:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -788,7 +788,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-03-14 09:21</t>
+          <t>2023-04-26 11:40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-03-14 08:21</t>
+          <t>2023-04-26 10:40</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-03-14 07:21</t>
+          <t>2023-04-26 09:40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -812,7 +812,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-03-14 06:21</t>
+          <t>2023-04-26 08:40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -820,7 +820,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-03-14 05:21</t>
+          <t>2023-04-26 07:40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-03-14 04:21</t>
+          <t>2023-04-26 06:40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -836,7 +836,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-03-14 03:21</t>
+          <t>2023-04-26 05:40</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -844,7 +844,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-03-14 02:21</t>
+          <t>2023-04-26 04:40</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -852,7 +852,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-03-14 01:21</t>
+          <t>2023-04-26 03:40</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -860,7 +860,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-03-14 00:21</t>
+          <t>2023-04-26 02:40</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -868,7 +868,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-03-13 23:21</t>
+          <t>2023-04-26 01:40</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-03-13 22:21</t>
+          <t>2023-04-26 00:40</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -884,7 +884,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-03-13 21:21</t>
+          <t>2023-04-25 23:40</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
